--- a/黑色/铁矿/eta/铁矿期货价格_合并数据.xlsx
+++ b/黑色/铁矿/eta/铁矿期货价格_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>812.5724</v>
+        <v>828.271</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>811.688</v>
+        <v>824.631</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>809.9102</v>
+        <v>823.0599999999999</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>807.2042</v>
+        <v>813.8915</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>808.2915</v>
+        <v>815.1398</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>809.8199</v>
+        <v>815.9267</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>817.6435</v>
+        <v>834.2756000000001</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>805.245</v>
+        <v>822.5669</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>803.9126</v>
+        <v>807.8872</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>817.191</v>
+        <v>829.0517</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>823.7217000000001</v>
+        <v>816.1226</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>817.1155</v>
+        <v>815.2746</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>808.4669</v>
+        <v>809.5371</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>809.8335</v>
+        <v>804.4885</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>801.7426</v>
+        <v>801.9944</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>800.7686</v>
+        <v>799.0966</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>801.8244999999999</v>
+        <v>795.7944</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>806.6313</v>
+        <v>793.9400000000001</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>802.1327</v>
+        <v>786.8131</v>
       </c>
     </row>
     <row r="21">
@@ -667,41 +667,41 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>799.2261999999999</v>
+        <v>792.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>780.3351</v>
+        <v>786.2939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>770.8251</v>
-      </c>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>792.5</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
-        <v>771</v>
-      </c>
+          <t>2025/10/27</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
